--- a/Filtered_By_Region/Region IX/Region IX_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS373"/>
+  <dimension ref="A1:AU373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -768,7 +778,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -877,7 +892,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -991,7 +1011,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1105,7 +1130,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1239,7 +1269,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1353,7 +1388,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1467,7 +1507,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1581,7 +1626,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1695,7 +1745,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1829,7 +1884,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1963,7 +2023,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2097,7 +2162,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2211,7 +2281,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2345,7 +2420,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2459,7 +2539,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2593,7 +2678,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2727,7 +2817,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2841,7 +2936,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2975,7 +3075,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3089,7 +3194,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3203,7 +3313,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3317,7 +3432,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3451,7 +3571,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3565,7 +3690,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3699,7 +3829,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3813,7 +3948,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3947,7 +4087,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4081,7 +4226,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4215,7 +4365,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4349,7 +4504,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4483,7 +4643,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4597,7 +4762,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4711,7 +4881,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4845,7 +5020,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4979,7 +5159,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5113,7 +5298,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5227,7 +5417,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5341,7 +5536,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5455,7 +5655,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5589,7 +5794,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5703,7 +5913,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5817,7 +6032,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5951,7 +6171,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6085,7 +6310,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6199,7 +6429,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6333,7 +6568,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6467,7 +6707,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6581,7 +6826,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6695,7 +6945,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6809,7 +7064,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6943,7 +7203,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7077,7 +7342,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7191,7 +7461,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7325,7 +7600,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7439,7 +7719,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7553,7 +7838,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7667,7 +7957,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7781,7 +8076,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7895,7 +8195,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8009,7 +8314,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8123,7 +8433,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8257,7 +8572,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8391,7 +8711,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8525,7 +8850,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8639,7 +8969,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8773,7 +9108,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8887,7 +9227,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AS68" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9021,7 +9366,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9155,7 +9505,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9289,7 +9644,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9423,7 +9783,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9537,7 +9902,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9671,7 +10041,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AS74" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9805,7 +10180,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9919,7 +10299,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AS76" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10053,7 +10438,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AS77" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10167,7 +10557,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10281,7 +10676,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AS79" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10415,7 +10815,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AS80" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10529,7 +10934,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10638,7 +11048,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AS82" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -10747,7 +11162,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AS83" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT83" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -10856,7 +11276,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AS84" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT84" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -10981,7 +11406,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11106,7 +11536,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AS86" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11231,7 +11666,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11356,7 +11796,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AS88" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11481,7 +11926,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11606,7 +12056,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AS90" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11731,7 +12186,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AS91" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11856,7 +12316,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AS92" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11981,7 +12446,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AS93" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12106,7 +12576,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AS94" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12231,7 +12706,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AS95" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12356,7 +12836,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AS96" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12481,7 +12966,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AS97" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12606,7 +13096,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AS98" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12731,7 +13226,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AS99" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12856,7 +13356,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AS100" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12981,7 +13486,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AS101" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13098,7 +13608,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13215,7 +13725,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13329,7 +13839,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13443,7 +13953,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13560,7 +14070,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13677,7 +14187,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13794,7 +14304,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13911,7 +14421,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14058,7 +14568,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14205,7 +14715,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14352,7 +14862,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14502,7 +15012,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14649,7 +15159,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14796,7 +15306,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14946,7 +15456,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15096,7 +15606,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15243,7 +15753,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15393,7 +15903,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15540,7 +16050,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15687,7 +16197,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15834,7 +16344,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15981,7 +16491,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16128,7 +16638,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16240,7 +16750,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -16387,7 +16897,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16528,7 +17038,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16669,7 +17179,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16810,7 +17320,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16951,7 +17461,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17092,7 +17602,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17233,7 +17743,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17374,7 +17884,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17515,7 +18025,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17656,7 +18166,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17791,7 +18301,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17926,7 +18436,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18061,7 +18571,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18196,7 +18706,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18331,7 +18841,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18466,7 +18976,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18601,7 +19111,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18736,7 +19246,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18871,7 +19381,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19006,7 +19516,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19141,7 +19651,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19276,7 +19786,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19411,7 +19921,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19546,7 +20056,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19681,7 +20191,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19816,7 +20326,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19951,7 +20461,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20086,7 +20596,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20221,7 +20731,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20356,7 +20866,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20491,7 +21001,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20626,7 +21136,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20761,7 +21271,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20896,7 +21406,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21031,7 +21541,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21166,7 +21676,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21301,7 +21811,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21436,7 +21946,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21571,7 +22081,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21706,7 +22216,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21841,7 +22351,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21976,7 +22486,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22111,7 +22621,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22218,7 +22728,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -22325,7 +22835,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -22460,7 +22970,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22595,7 +23105,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22702,7 +23212,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -22809,7 +23319,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -22944,7 +23454,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23079,7 +23589,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23214,7 +23724,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23349,7 +23859,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23456,7 +23966,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -23563,7 +24073,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -23698,7 +24208,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23833,7 +24343,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR182" t="inlineStr">
+      <c r="AT182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23968,7 +24478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24103,7 +24613,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24238,7 +24748,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24345,7 +24855,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -24480,7 +24990,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24615,7 +25125,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24722,7 +25232,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -24857,7 +25367,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24992,7 +25502,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25127,7 +25637,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25262,7 +25772,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AT193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25397,7 +25907,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR194" t="inlineStr">
+      <c r="AT194" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25532,7 +26042,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR195" t="inlineStr">
+      <c r="AT195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25667,7 +26177,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR196" t="inlineStr">
+      <c r="AT196" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25802,7 +26312,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR197" t="inlineStr">
+      <c r="AT197" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25937,7 +26447,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR198" t="inlineStr">
+      <c r="AT198" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26072,7 +26582,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR199" t="inlineStr">
+      <c r="AT199" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26207,7 +26717,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR200" t="inlineStr">
+      <c r="AT200" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26316,7 +26826,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR201" t="inlineStr">
+      <c r="AT201" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26425,7 +26935,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR202" t="inlineStr">
+      <c r="AT202" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26534,7 +27044,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR203" t="inlineStr">
+      <c r="AT203" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26643,7 +27153,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR204" t="inlineStr">
+      <c r="AT204" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26752,7 +27262,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR205" t="inlineStr">
+      <c r="AT205" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26866,7 +27376,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR206" t="inlineStr">
+      <c r="AT206" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26975,7 +27485,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR207" t="inlineStr">
+      <c r="AT207" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27084,7 +27594,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27193,7 +27703,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27302,7 +27812,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AT210" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27416,7 +27926,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27530,7 +28040,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27639,7 +28149,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27748,7 +28258,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27862,7 +28372,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27971,7 +28481,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AT216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28080,7 +28590,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28194,7 +28704,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28303,7 +28813,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28439,7 +28949,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28575,7 +29085,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28711,7 +29221,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR222" t="inlineStr">
+      <c r="AT222" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28820,7 +29330,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR223" t="inlineStr">
+      <c r="AT223" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28929,7 +29439,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR224" t="inlineStr">
+      <c r="AT224" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29038,7 +29548,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29147,7 +29657,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29256,7 +29766,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR227" t="inlineStr">
+      <c r="AT227" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29370,7 +29880,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR228" t="inlineStr">
+      <c r="AT228" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29479,7 +29989,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR229" t="inlineStr">
+      <c r="AT229" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29588,7 +30098,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29702,7 +30212,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR231" t="inlineStr">
+      <c r="AT231" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29816,7 +30326,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR232" t="inlineStr">
+      <c r="AT232" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29925,7 +30435,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR233" t="inlineStr">
+      <c r="AT233" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30039,7 +30549,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR234" t="inlineStr">
+      <c r="AT234" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30153,7 +30663,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR235" t="inlineStr">
+      <c r="AT235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30267,7 +30777,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR236" t="inlineStr">
+      <c r="AT236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30376,7 +30886,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30490,7 +31000,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR238" t="inlineStr">
+      <c r="AT238" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30604,7 +31114,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR239" t="inlineStr">
+      <c r="AT239" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30718,7 +31228,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR240" t="inlineStr">
+      <c r="AT240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30832,7 +31342,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR241" t="inlineStr">
+      <c r="AT241" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30946,7 +31456,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR242" t="inlineStr">
+      <c r="AT242" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31060,7 +31570,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR243" t="inlineStr">
+      <c r="AT243" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31169,7 +31679,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR244" t="inlineStr">
+      <c r="AT244" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31278,7 +31788,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR245" t="inlineStr">
+      <c r="AT245" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31387,7 +31897,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR246" t="inlineStr">
+      <c r="AT246" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31496,7 +32006,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR247" t="inlineStr">
+      <c r="AT247" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31605,7 +32115,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR248" t="inlineStr">
+      <c r="AT248" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31714,7 +32224,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR249" t="inlineStr">
+      <c r="AT249" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31823,7 +32333,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR250" t="inlineStr">
+      <c r="AT250" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31932,7 +32442,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR251" t="inlineStr">
+      <c r="AT251" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32041,7 +32551,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR252" t="inlineStr">
+      <c r="AT252" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32150,7 +32660,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR253" t="inlineStr">
+      <c r="AT253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32259,7 +32769,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR254" t="inlineStr">
+      <c r="AT254" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32368,7 +32878,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR255" t="inlineStr">
+      <c r="AT255" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32477,7 +32987,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR256" t="inlineStr">
+      <c r="AT256" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32586,7 +33096,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR257" t="inlineStr">
+      <c r="AT257" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32695,7 +33205,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR258" t="inlineStr">
+      <c r="AT258" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32804,7 +33314,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR259" t="inlineStr">
+      <c r="AT259" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32913,7 +33423,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR260" t="inlineStr">
+      <c r="AT260" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33022,7 +33532,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR261" t="inlineStr">
+      <c r="AT261" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33131,7 +33641,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR262" t="inlineStr">
+      <c r="AT262" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33240,7 +33750,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR263" t="inlineStr">
+      <c r="AT263" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33349,7 +33859,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR264" t="inlineStr">
+      <c r="AT264" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33458,7 +33968,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR265" t="inlineStr">
+      <c r="AT265" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33567,7 +34077,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR266" t="inlineStr">
+      <c r="AT266" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33676,7 +34186,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR267" t="inlineStr">
+      <c r="AT267" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33785,7 +34295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR268" t="inlineStr">
+      <c r="AT268" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33894,7 +34404,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR269" t="inlineStr">
+      <c r="AT269" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34003,7 +34513,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR270" t="inlineStr">
+      <c r="AT270" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34112,7 +34622,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR271" t="inlineStr">
+      <c r="AT271" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34243,7 +34753,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR272" t="inlineStr">
+      <c r="AT272" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34375,7 +34885,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR273" t="inlineStr">
+      <c r="AT273" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34507,7 +35017,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR274" t="inlineStr">
+      <c r="AT274" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34639,7 +35149,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR275" t="inlineStr">
+      <c r="AT275" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34771,7 +35281,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR276" t="inlineStr">
+      <c r="AT276" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34903,7 +35413,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR277" t="inlineStr">
+      <c r="AT277" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35035,7 +35545,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR278" t="inlineStr">
+      <c r="AT278" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35167,7 +35677,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR279" t="inlineStr">
+      <c r="AT279" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35298,7 +35808,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR280" t="inlineStr">
+      <c r="AT280" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35430,7 +35940,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR281" t="inlineStr">
+      <c r="AT281" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35562,7 +36072,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR282" t="inlineStr">
+      <c r="AT282" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35671,7 +36181,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR283" t="inlineStr">
+      <c r="AT283" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35785,7 +36295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR284" t="inlineStr">
+      <c r="AT284" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35899,7 +36409,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR285" t="inlineStr">
+      <c r="AT285" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36013,7 +36523,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR286" t="inlineStr">
+      <c r="AT286" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36122,7 +36632,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR287" t="inlineStr">
+      <c r="AT287" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36231,7 +36741,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR288" t="inlineStr">
+      <c r="AT288" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36340,7 +36850,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR289" t="inlineStr">
+      <c r="AT289" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36454,7 +36964,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR290" t="inlineStr">
+      <c r="AT290" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36563,7 +37073,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR291" t="inlineStr">
+      <c r="AT291" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36672,7 +37182,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR292" t="inlineStr">
+      <c r="AT292" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36786,7 +37296,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR293" t="inlineStr">
+      <c r="AT293" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36895,7 +37405,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR294" t="inlineStr">
+      <c r="AT294" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37004,7 +37514,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR295" t="inlineStr">
+      <c r="AT295" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37115,6 +37625,11 @@
       </c>
       <c r="AR296" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT296" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -37222,7 +37737,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR297" t="inlineStr">
+      <c r="AT297" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37331,7 +37846,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR298" t="inlineStr">
+      <c r="AT298" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37496,7 +38011,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR299" t="inlineStr">
+      <c r="AT299" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37661,7 +38176,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR300" t="inlineStr">
+      <c r="AT300" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37818,7 +38333,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR301" t="inlineStr">
+      <c r="AT301" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37983,7 +38498,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR302" t="inlineStr">
+      <c r="AT302" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38136,7 +38651,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR303" t="inlineStr">
+      <c r="AT303" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38289,7 +38804,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR304" t="inlineStr">
+      <c r="AT304" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38410,6 +38925,11 @@
       </c>
       <c r="AR305" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT305" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -38527,7 +39047,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR306" t="inlineStr">
+      <c r="AT306" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38646,7 +39166,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR307" t="inlineStr">
+      <c r="AT307" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38765,7 +39285,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR308" t="inlineStr">
+      <c r="AT308" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38884,7 +39404,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR309" t="inlineStr">
+      <c r="AT309" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39003,7 +39523,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR310" t="inlineStr">
+      <c r="AT310" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39156,7 +39676,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR311" t="inlineStr">
+      <c r="AT311" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39309,7 +39829,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR312" t="inlineStr">
+      <c r="AT312" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39462,7 +39982,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR313" t="inlineStr">
+      <c r="AT313" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39615,7 +40135,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR314" t="inlineStr">
+      <c r="AT314" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39768,7 +40288,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR315" t="inlineStr">
+      <c r="AT315" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39921,7 +40441,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR316" t="inlineStr">
+      <c r="AT316" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40066,7 +40586,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR317" t="inlineStr">
+      <c r="AT317" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40223,7 +40743,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR318" t="inlineStr">
+      <c r="AT318" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40380,7 +40900,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR319" t="inlineStr">
+      <c r="AT319" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40537,7 +41057,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR320" t="inlineStr">
+      <c r="AT320" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40694,7 +41214,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR321" t="inlineStr">
+      <c r="AT321" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40851,7 +41371,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR322" t="inlineStr">
+      <c r="AT322" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41008,7 +41528,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR323" t="inlineStr">
+      <c r="AT323" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41165,7 +41685,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR324" t="inlineStr">
+      <c r="AT324" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41322,7 +41842,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR325" t="inlineStr">
+      <c r="AT325" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41477,7 +41997,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR326" t="inlineStr">
+      <c r="AT326" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41634,7 +42154,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR327" t="inlineStr">
+      <c r="AT327" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41791,7 +42311,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR328" t="inlineStr">
+      <c r="AT328" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41948,7 +42468,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR329" t="inlineStr">
+      <c r="AT329" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42105,7 +42625,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR330" t="inlineStr">
+      <c r="AT330" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42262,7 +42782,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR331" t="inlineStr">
+      <c r="AT331" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42419,7 +42939,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR332" t="inlineStr">
+      <c r="AT332" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42576,7 +43096,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR333" t="inlineStr">
+      <c r="AT333" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42733,7 +43253,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR334" t="inlineStr">
+      <c r="AT334" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42890,7 +43410,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR335" t="inlineStr">
+      <c r="AT335" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43047,7 +43567,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR336" t="inlineStr">
+      <c r="AT336" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43204,7 +43724,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR337" t="inlineStr">
+      <c r="AT337" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43359,7 +43879,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR338" t="inlineStr">
+      <c r="AT338" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43516,7 +44036,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR339" t="inlineStr">
+      <c r="AT339" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43673,7 +44193,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR340" t="inlineStr">
+      <c r="AT340" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43830,7 +44350,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR341" t="inlineStr">
+      <c r="AT341" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43987,7 +44507,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR342" t="inlineStr">
+      <c r="AT342" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44144,7 +44664,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR343" t="inlineStr">
+      <c r="AT343" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44301,7 +44821,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR344" t="inlineStr">
+      <c r="AT344" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44458,7 +44978,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR345" t="inlineStr">
+      <c r="AT345" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44611,6 +45131,11 @@
       </c>
       <c r="AR346" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT346" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44762,6 +45287,11 @@
       </c>
       <c r="AR347" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT347" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44913,6 +45443,11 @@
       </c>
       <c r="AR348" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT348" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -45071,7 +45606,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR349" t="inlineStr">
+      <c r="AT349" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45224,7 +45759,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR350" t="inlineStr">
+      <c r="AT350" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45377,7 +45912,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR351" t="inlineStr">
+      <c r="AT351" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45530,7 +46065,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR352" t="inlineStr">
+      <c r="AT352" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45683,7 +46218,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR353" t="inlineStr">
+      <c r="AT353" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45836,7 +46371,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR354" t="inlineStr">
+      <c r="AT354" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45989,7 +46524,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR355" t="inlineStr">
+      <c r="AT355" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46142,7 +46677,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR356" t="inlineStr">
+      <c r="AT356" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46295,7 +46830,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR357" t="inlineStr">
+      <c r="AT357" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46448,7 +46983,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR358" t="inlineStr">
+      <c r="AT358" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46564,6 +47099,11 @@
       </c>
       <c r="AR359" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT359" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46678,6 +47218,11 @@
       </c>
       <c r="AR360" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT360" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46795,6 +47340,11 @@
       </c>
       <c r="AR361" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT361" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -46907,6 +47457,11 @@
       </c>
       <c r="AR362" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT362" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47077,6 +47632,11 @@
       </c>
       <c r="AR363" t="inlineStr">
         <is>
+          <t>BBM 2025 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT363" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47245,6 +47805,11 @@
       </c>
       <c r="AR364" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT364" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47404,6 +47969,11 @@
       </c>
       <c r="AR365" t="inlineStr">
         <is>
+          <t>BBM 2025 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT365" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47574,6 +48144,11 @@
       </c>
       <c r="AR366" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT366" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47744,6 +48319,11 @@
       </c>
       <c r="AR367" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT367" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -47914,6 +48494,11 @@
       </c>
       <c r="AR368" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT368" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48084,6 +48669,11 @@
       </c>
       <c r="AR369" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT369" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48252,6 +48842,11 @@
       </c>
       <c r="AR370" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT370" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48420,6 +49015,11 @@
       </c>
       <c r="AR371" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT371" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48589,6 +49189,11 @@
       </c>
       <c r="AR372" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT372" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -48760,13 +49365,18 @@
       </c>
       <c r="AR373" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT373" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS373" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU373" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
